--- a/product_upload/tests/products_1.xlsx
+++ b/product_upload/tests/products_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">Referencia</t>
   </si>
@@ -212,16 +212,16 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.0242914979757"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -344,6 +344,21 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>50.445</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>75.66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
